--- a/biology/Botanique/Préfoliation/Préfoliation.xlsx
+++ b/biology/Botanique/Préfoliation/Préfoliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9foliation</t>
+          <t>Préfoliation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, la préfoliation, appelée aussi préfoliaison (terme créé par le botaniste Michel Adanson) ou anciennement vernation (du latin vernatio, « changement de peau des serpents, mue en général », dérivé de vernus, « printanier ») est la disposition des feuilles préformées dans les bourgeons encore clos où elles se développent selon des modalités particulières en raison de l'espace confiné et du phénotype. Ce terme peut comprendre la disposition de chaque feuille séparément (feuille roulée ou plissée, appelée ptyxis, « pli ») ou leurs dispositions entre elles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, la préfoliation, appelée aussi préfoliaison (terme créé par le botaniste Michel Adanson) ou anciennement vernation (du latin vernatio, « changement de peau des serpents, mue en général », dérivé de vernus, « printanier ») est la disposition des feuilles préformées dans les bourgeons encore clos où elles se développent selon des modalités particulières en raison de l'espace confiné et du phénotype. Ce terme peut comprendre la disposition de chaque feuille séparément (feuille roulée ou plissée, appelée ptyxis, « pli ») ou leurs dispositions entre elles.
 Ces ébauches de feuilles qui, au cours de leur édification, s'enroulent (sur elles-mêmes ou ont leurs bords enroulés), se plissent et se superposent d'une façon caractéristique sont utilisées comme élément de diagnose par les botanistes systématiciens.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9foliation</t>
+          <t>Préfoliation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Types de préfoliations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux types de préfoliations de chaque feuille séparément[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux types de préfoliations de chaque feuille séparément :
 préfoliation plane : limbe des feuilles étalé dans le bourgeon (exemple : iris)
 préfoliation enroulée :
 préfoliation circinée ou circinale: feuille enroulée sur elle-même transversalement du sommet vers la base (Parnassie des marais, Hibiscus ; typique de la fronde des fougères ou des Cycadales chez qui on parle aussi de préfrondaison)
